--- a/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{78FFCE7B-D891-4E29-9E5B-095A55EDC984}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F08AF07-FCB5-451F-855C-147B87694101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E0FEF3B5-73CC-45A3-89ED-29164CD3BEF4}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC7B4CC-48C1-4B55-A966-5CC3CB4EE8A9}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>65,25%</t>
   </si>
   <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
+    <t>38,84%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
   </si>
   <si>
     <t>60,41%</t>
   </si>
   <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
   </si>
   <si>
     <t>27,22%</t>
   </si>
   <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -164,7 +164,7 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,79%</t>
+    <t>2,65%</t>
   </si>
   <si>
     <t>12,93%</t>
@@ -173,19 +173,19 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
   </si>
   <si>
     <t>Varias veces a la semana</t>
@@ -194,523 +194,529 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
   </si>
   <si>
     <t>4,19%</t>
   </si>
   <si>
-    <t>1,46%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>56,73%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>55,32%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>54,49%</t>
+  </si>
+  <si>
+    <t>61,45%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,86%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
   </si>
   <si>
     <t>9,16%</t>
   </si>
   <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
   </si>
   <si>
     <t>6,33%</t>
   </si>
   <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,39%</t>
+    <t>1,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C4C409-3409-4351-B3FB-02F2E5D46D3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1814B4B4-5484-4735-9949-11EB122EB610}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1522,10 +1528,10 @@
         <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1534,13 +1540,13 @@
         <v>9599</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1555,13 +1561,13 @@
         <v>134198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -1570,13 +1576,13 @@
         <v>89326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
@@ -1585,18 +1591,18 @@
         <v>223523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1608,13 +1614,13 @@
         <v>681774</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -1623,13 +1629,13 @@
         <v>501547</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>1216</v>
@@ -1638,13 +1644,13 @@
         <v>1183321</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,13 +1665,13 @@
         <v>282971</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -1674,13 +1680,13 @@
         <v>249415</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>639</v>
@@ -1689,13 +1695,13 @@
         <v>532386</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,13 +1716,13 @@
         <v>104435</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -1725,13 +1731,13 @@
         <v>80199</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -1740,13 +1746,13 @@
         <v>184634</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1767,13 @@
         <v>101236</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -1779,10 +1785,10 @@
         <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -1914,13 +1920,13 @@
         <v>1237079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
@@ -1929,13 +1935,13 @@
         <v>940930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M17" s="7">
         <v>2357</v>
@@ -1944,13 +1950,13 @@
         <v>2178009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2102,10 +2108,10 @@
         <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>149</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2120,13 +2126,13 @@
         <v>16879</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -2135,13 +2141,13 @@
         <v>27366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -2150,13 +2156,13 @@
         <v>44245</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>47</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2177,13 @@
         <v>14804</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2186,13 +2192,13 @@
         <v>16050</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -2201,13 +2207,13 @@
         <v>30854</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2222,13 +2228,13 @@
         <v>13597</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2258,7 +2264,7 @@
         <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2279,13 @@
         <v>466135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H24" s="7">
         <v>652</v>
@@ -2288,13 +2294,13 @@
         <v>473747</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M24" s="7">
         <v>1089</v>
@@ -2303,13 +2309,13 @@
         <v>939882</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2326,13 +2332,13 @@
         <v>1049621</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>1071</v>
@@ -2341,13 +2347,13 @@
         <v>816170</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1992</v>
@@ -2356,13 +2362,13 @@
         <v>1865790</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2383,13 @@
         <v>415996</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -2392,13 +2398,13 @@
         <v>388222</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>981</v>
@@ -2407,13 +2413,13 @@
         <v>804219</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2434,13 @@
         <v>146624</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>158</v>
@@ -2443,13 +2449,13 @@
         <v>118268</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>293</v>
@@ -2458,13 +2464,13 @@
         <v>264892</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2485,13 @@
         <v>126396</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -2494,13 +2500,13 @@
         <v>95224</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>244</v>
@@ -2509,13 +2515,13 @@
         <v>221620</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2530,13 +2536,13 @@
         <v>66876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -2545,13 +2551,13 @@
         <v>56483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>48</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -2560,13 +2566,13 @@
         <v>123358</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2587,13 @@
         <v>31900</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -2596,13 +2602,13 @@
         <v>29636</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>222</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -2611,13 +2617,13 @@
         <v>61536</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2632,13 +2638,13 @@
         <v>1837412</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H31" s="7">
         <v>2037</v>
@@ -2647,13 +2653,13 @@
         <v>1504002</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M31" s="7">
         <v>3710</v>
@@ -2662,18 +2668,18 @@
         <v>3341414</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F08AF07-FCB5-451F-855C-147B87694101}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7D81D2-DB70-4B88-A754-F9C27687AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FAC7B4CC-48C1-4B55-A966-5CC3CB4EE8A9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C99845D-B1C6-46C0-ACEC-428D175AD06F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -1131,7 +1131,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1814B4B4-5484-4735-9949-11EB122EB610}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F4DDEC-54B5-43D0-BBE7-EDAF95340AE2}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D7D81D2-DB70-4B88-A754-F9C27687AB9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2539984-EEF1-4990-BCA3-12A425A68344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7C99845D-B1C6-46C0-ACEC-428D175AD06F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA8120A-5C06-496D-A93A-0773FA72B035}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>65,25%</t>
   </si>
   <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
+    <t>56,46%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>38,84%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
   </si>
   <si>
     <t>60,41%</t>
   </si>
   <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
+    <t>51,93%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
@@ -104,28 +104,28 @@
     <t>19,43%</t>
   </si>
   <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
   </si>
   <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>19,31%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
@@ -134,28 +134,28 @@
     <t>6,39%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
   </si>
   <si>
     <t>6,19%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
   </si>
   <si>
     <t>6,31%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
@@ -164,7 +164,7 @@
     <t>6,17%</t>
   </si>
   <si>
-    <t>2,65%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>12,93%</t>
@@ -173,550 +173,544 @@
     <t>6,59%</t>
   </si>
   <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>6,34%</t>
   </si>
   <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>55,11%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>54,33%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,13%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>60,69%</t>
+  </si>
+  <si>
+    <t>58,24%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>21,83%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>55,84%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>56,73%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>55,32%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>54,49%</t>
-  </si>
-  <si>
-    <t>61,45%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,86%</t>
-  </si>
-  <si>
-    <t>58,38%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1131,7 +1125,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F4DDEC-54B5-43D0-BBE7-EDAF95340AE2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F5D7FB-CD88-449E-AD12-A993B724BAFD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1528,10 +1522,10 @@
         <v>64</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
@@ -1540,13 +1534,13 @@
         <v>9599</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1561,13 +1555,13 @@
         <v>134198</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
@@ -1576,13 +1570,13 @@
         <v>89326</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
@@ -1591,18 +1585,18 @@
         <v>223523</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1614,13 +1608,13 @@
         <v>681774</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
@@ -1629,13 +1623,13 @@
         <v>501547</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M11" s="7">
         <v>1216</v>
@@ -1644,13 +1638,13 @@
         <v>1183321</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1665,13 +1659,13 @@
         <v>282971</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
@@ -1680,13 +1674,13 @@
         <v>249415</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M12" s="7">
         <v>639</v>
@@ -1695,13 +1689,13 @@
         <v>532386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1716,13 +1710,13 @@
         <v>104435</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
@@ -1731,13 +1725,13 @@
         <v>80199</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
@@ -1746,13 +1740,13 @@
         <v>184634</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1767,13 +1761,13 @@
         <v>101236</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
@@ -1785,10 +1779,10 @@
         <v>44</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -1920,13 +1914,13 @@
         <v>1237079</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
@@ -1935,13 +1929,13 @@
         <v>940930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M17" s="7">
         <v>2357</v>
@@ -1950,13 +1944,13 @@
         <v>2178009</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2108,10 +2102,10 @@
         <v>148</v>
       </c>
       <c r="P20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2126,13 +2120,13 @@
         <v>16879</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
@@ -2141,13 +2135,13 @@
         <v>27366</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
@@ -2156,13 +2150,13 @@
         <v>44245</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P21" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q21" s="7" t="s">
-        <v>159</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2171,13 @@
         <v>14804</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
@@ -2192,13 +2186,13 @@
         <v>16050</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
@@ -2207,13 +2201,13 @@
         <v>30854</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2228,13 +2222,13 @@
         <v>13597</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
@@ -2264,7 +2258,7 @@
         <v>174</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2279,13 +2273,13 @@
         <v>466135</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H24" s="7">
         <v>652</v>
@@ -2294,13 +2288,13 @@
         <v>473747</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M24" s="7">
         <v>1089</v>
@@ -2309,13 +2303,13 @@
         <v>939882</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2326,13 @@
         <v>1049621</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>1071</v>
@@ -2347,13 +2341,13 @@
         <v>816170</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>1992</v>
@@ -2362,13 +2356,13 @@
         <v>1865790</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2377,13 @@
         <v>415996</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
@@ -2398,13 +2392,13 @@
         <v>388222</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>981</v>
@@ -2413,13 +2407,13 @@
         <v>804219</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2434,13 +2428,13 @@
         <v>146624</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H27" s="7">
         <v>158</v>
@@ -2449,13 +2443,13 @@
         <v>118268</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M27" s="7">
         <v>293</v>
@@ -2464,13 +2458,13 @@
         <v>264892</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2485,13 +2479,13 @@
         <v>126396</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
@@ -2500,13 +2494,13 @@
         <v>95224</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>244</v>
@@ -2515,13 +2509,13 @@
         <v>221620</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,13 +2530,13 @@
         <v>66876</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>214</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
@@ -2551,13 +2545,13 @@
         <v>56483</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>48</v>
+        <v>212</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
@@ -2566,13 +2560,13 @@
         <v>123358</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2587,13 +2581,13 @@
         <v>31900</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
@@ -2602,13 +2596,13 @@
         <v>29636</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
@@ -2617,13 +2611,13 @@
         <v>61536</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,13 +2632,13 @@
         <v>1837412</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H31" s="7">
         <v>2037</v>
@@ -2653,13 +2647,13 @@
         <v>1504002</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M31" s="7">
         <v>3710</v>
@@ -2668,18 +2662,18 @@
         <v>3341414</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P70C3_2023-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2539984-EEF1-4990-BCA3-12A425A68344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD80559-2252-40E5-B0CA-52394F40DDCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1BA8120A-5C06-496D-A93A-0773FA72B035}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{2C70357D-949F-4293-B727-633C03A93926}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="223">
   <si>
     <t>Población según si le resulta difícil concentrarse en su trabajo debido a sus responsabilidades familiares en 2023 (Tasa respuesta: 42,51%)</t>
   </si>
@@ -71,646 +71,637 @@
     <t>Nunca/ casi nunca</t>
   </si>
   <si>
-    <t>65,25%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
-  </si>
-  <si>
-    <t>51,93%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>57,04%</t>
+  </si>
+  <si>
+    <t>74,57%</t>
+  </si>
+  <si>
+    <t>55,18%</t>
+  </si>
+  <si>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>53,58%</t>
+  </si>
+  <si>
+    <t>68,76%</t>
   </si>
   <si>
     <t>Con menos frecuencia /raramente</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
     <t>19,13%</t>
   </si>
   <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>Varias veces al año</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
   </si>
   <si>
     <t>Varias veces al mes</t>
   </si>
   <si>
-    <t>6,17%</t>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>Varias veces a la semana</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>53,01%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>52,86%</t>
+  </si>
+  <si>
+    <t>68,5%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>61,27%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
   </si>
   <si>
     <t>2,79%</t>
   </si>
   <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>Varias veces a la semana</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>55,11%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>53,3%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>51,7%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>23,73%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>61,95%</t>
+  </si>
+  <si>
+    <t>55,36%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>64,18%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
   </si>
   <si>
     <t>7,27%</t>
   </si>
   <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>60,69%</t>
-  </si>
-  <si>
-    <t>58,24%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>21,83%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
   </si>
   <si>
     <t>2,24%</t>
   </si>
   <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>51,8%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>55,84%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>58,43%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1125,7 +1116,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65F5D7FB-CD88-449E-AD12-A993B724BAFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{798D376B-6828-42C5-ABA3-95F0A6E9C87B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1246,7 +1237,7 @@
         <v>93</v>
       </c>
       <c r="D4" s="7">
-        <v>87562</v>
+        <v>87476</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1261,7 +1252,7 @@
         <v>70</v>
       </c>
       <c r="I4" s="7">
-        <v>47477</v>
+        <v>44481</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1276,7 +1267,7 @@
         <v>163</v>
       </c>
       <c r="N4" s="7">
-        <v>135039</v>
+        <v>131957</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1297,7 +1288,7 @@
         <v>29</v>
       </c>
       <c r="D5" s="7">
-        <v>26069</v>
+        <v>25272</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1312,7 +1303,7 @@
         <v>23</v>
       </c>
       <c r="I5" s="7">
-        <v>17086</v>
+        <v>14896</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1327,7 +1318,7 @@
         <v>52</v>
       </c>
       <c r="N5" s="7">
-        <v>43155</v>
+        <v>40168</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1348,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>8574</v>
+        <v>8167</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1363,139 +1354,139 @@
         <v>10</v>
       </c>
       <c r="I6" s="7">
-        <v>5532</v>
+        <v>4978</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="K6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>35</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>36</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
       </c>
       <c r="N6" s="7">
-        <v>14105</v>
+        <v>13145</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7">
         <v>7</v>
       </c>
       <c r="D7" s="7">
-        <v>8281</v>
+        <v>7695</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
       </c>
       <c r="I7" s="7">
-        <v>5890</v>
+        <v>5359</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
       </c>
       <c r="N7" s="7">
-        <v>14170</v>
+        <v>13054</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C8" s="7">
         <v>4</v>
       </c>
       <c r="D8" s="7">
-        <v>3712</v>
+        <v>3493</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>3742</v>
+        <v>3480</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
       </c>
       <c r="N8" s="7">
-        <v>7454</v>
+        <v>6973</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C9" s="7">
         <v>0</v>
@@ -1504,43 +1495,43 @@
         <v>0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
       </c>
       <c r="I9" s="7">
-        <v>9600</v>
+        <v>7415</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="M9" s="7">
         <v>4</v>
       </c>
       <c r="N9" s="7">
-        <v>9599</v>
+        <v>7416</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1552,51 +1543,51 @@
         <v>142</v>
       </c>
       <c r="D10" s="7">
-        <v>134198</v>
+        <v>132103</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H10" s="7">
         <v>122</v>
       </c>
       <c r="I10" s="7">
-        <v>89326</v>
+        <v>80609</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>264</v>
       </c>
       <c r="N10" s="7">
-        <v>223523</v>
+        <v>212712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -1605,46 +1596,46 @@
         <v>568</v>
       </c>
       <c r="D11" s="7">
-        <v>681774</v>
+        <v>859811</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>648</v>
       </c>
       <c r="I11" s="7">
-        <v>501547</v>
+        <v>545976</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>1216</v>
       </c>
       <c r="N11" s="7">
-        <v>1183321</v>
+        <v>1405787</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1656,46 +1647,46 @@
         <v>281</v>
       </c>
       <c r="D12" s="7">
-        <v>282971</v>
+        <v>258919</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>358</v>
       </c>
       <c r="I12" s="7">
-        <v>249415</v>
+        <v>223890</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>639</v>
       </c>
       <c r="N12" s="7">
-        <v>532386</v>
+        <v>482809</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1707,199 +1698,199 @@
         <v>93</v>
       </c>
       <c r="D13" s="7">
-        <v>104435</v>
+        <v>102369</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H13" s="7">
         <v>104</v>
       </c>
       <c r="I13" s="7">
-        <v>80199</v>
+        <v>71970</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>197</v>
       </c>
       <c r="N13" s="7">
-        <v>184634</v>
+        <v>174339</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="7">
         <v>89</v>
       </c>
       <c r="D14" s="7">
-        <v>101236</v>
+        <v>99291</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>87</v>
       </c>
       <c r="I14" s="7">
-        <v>61969</v>
+        <v>57308</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
       </c>
       <c r="N14" s="7">
-        <v>163205</v>
+        <v>156599</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C15" s="7">
         <v>43</v>
       </c>
       <c r="D15" s="7">
-        <v>48359</v>
+        <v>45517</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H15" s="7">
         <v>51</v>
       </c>
       <c r="I15" s="7">
-        <v>36691</v>
+        <v>33601</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M15" s="7">
         <v>94</v>
       </c>
       <c r="N15" s="7">
-        <v>85050</v>
+        <v>79118</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>109</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C16" s="7">
         <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>18303</v>
+        <v>17688</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>11110</v>
+        <v>10425</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
       </c>
       <c r="N16" s="7">
-        <v>29413</v>
+        <v>28114</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1911,51 +1902,51 @@
         <v>1094</v>
       </c>
       <c r="D17" s="7">
-        <v>1237079</v>
+        <v>1383595</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H17" s="7">
         <v>1263</v>
       </c>
       <c r="I17" s="7">
-        <v>940930</v>
+        <v>943170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M17" s="7">
         <v>2357</v>
       </c>
       <c r="N17" s="7">
-        <v>2178009</v>
+        <v>2326765</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>10</v>
@@ -1964,46 +1955,46 @@
         <v>260</v>
       </c>
       <c r="D18" s="7">
-        <v>280284</v>
+        <v>270857</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="H18" s="7">
         <v>353</v>
       </c>
       <c r="I18" s="7">
-        <v>267147</v>
+        <v>250811</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>613</v>
       </c>
       <c r="N18" s="7">
-        <v>547431</v>
+        <v>521668</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,46 +2006,46 @@
         <v>108</v>
       </c>
       <c r="D19" s="7">
-        <v>106956</v>
+        <v>104976</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>182</v>
       </c>
       <c r="I19" s="7">
-        <v>121721</v>
+        <v>110941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>290</v>
       </c>
       <c r="N19" s="7">
-        <v>228677</v>
+        <v>215917</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,199 +2057,199 @@
         <v>33</v>
       </c>
       <c r="D20" s="7">
-        <v>33615</v>
+        <v>31786</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>44</v>
       </c>
       <c r="I20" s="7">
-        <v>32537</v>
+        <v>29543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M20" s="7">
         <v>77</v>
       </c>
       <c r="N20" s="7">
-        <v>66152</v>
+        <v>61329</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7">
         <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>16879</v>
+        <v>16311</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H21" s="7">
         <v>38</v>
       </c>
       <c r="I21" s="7">
-        <v>27366</v>
+        <v>25256</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M21" s="7">
         <v>52</v>
       </c>
       <c r="N21" s="7">
-        <v>44245</v>
+        <v>41567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>47</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C22" s="7">
         <v>10</v>
       </c>
       <c r="D22" s="7">
-        <v>14804</v>
+        <v>14074</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H22" s="7">
         <v>22</v>
       </c>
       <c r="I22" s="7">
-        <v>16050</v>
+        <v>14675</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M22" s="7">
         <v>32</v>
       </c>
       <c r="N22" s="7">
-        <v>30854</v>
+        <v>28749</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C23" s="7">
         <v>12</v>
       </c>
       <c r="D23" s="7">
-        <v>13597</v>
+        <v>12590</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H23" s="7">
         <v>13</v>
       </c>
       <c r="I23" s="7">
-        <v>8926</v>
+        <v>8318</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M23" s="7">
         <v>25</v>
       </c>
       <c r="N23" s="7">
-        <v>22524</v>
+        <v>20908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>150</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,46 +2261,46 @@
         <v>437</v>
       </c>
       <c r="D24" s="7">
-        <v>466135</v>
+        <v>450594</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H24" s="7">
         <v>652</v>
       </c>
       <c r="I24" s="7">
-        <v>473747</v>
+        <v>439543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M24" s="7">
         <v>1089</v>
       </c>
       <c r="N24" s="7">
-        <v>939882</v>
+        <v>890138</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,46 +2314,46 @@
         <v>921</v>
       </c>
       <c r="D25" s="7">
-        <v>1049621</v>
+        <v>1218143</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H25" s="7">
         <v>1071</v>
       </c>
       <c r="I25" s="7">
-        <v>816170</v>
+        <v>841268</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M25" s="7">
         <v>1992</v>
       </c>
       <c r="N25" s="7">
-        <v>1865790</v>
+        <v>2059412</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,46 +2365,46 @@
         <v>418</v>
       </c>
       <c r="D26" s="7">
-        <v>415996</v>
+        <v>389166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>563</v>
       </c>
       <c r="I26" s="7">
-        <v>388222</v>
+        <v>349728</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>981</v>
       </c>
       <c r="N26" s="7">
-        <v>804219</v>
+        <v>738894</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,199 +2416,199 @@
         <v>135</v>
       </c>
       <c r="D27" s="7">
-        <v>146624</v>
+        <v>142323</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>195</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>158</v>
       </c>
       <c r="I27" s="7">
-        <v>118268</v>
+        <v>106490</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>293</v>
       </c>
       <c r="N27" s="7">
-        <v>264892</v>
+        <v>248813</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="7">
         <v>110</v>
       </c>
       <c r="D28" s="7">
-        <v>126396</v>
+        <v>123297</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H28" s="7">
         <v>134</v>
       </c>
       <c r="I28" s="7">
-        <v>95224</v>
+        <v>87922</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="M28" s="7">
         <v>244</v>
       </c>
       <c r="N28" s="7">
-        <v>221620</v>
+        <v>211219</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7">
         <v>57</v>
       </c>
       <c r="D29" s="7">
-        <v>66876</v>
+        <v>63084</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="H29" s="7">
         <v>79</v>
       </c>
       <c r="I29" s="7">
-        <v>56483</v>
+        <v>51755</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="M29" s="7">
         <v>136</v>
       </c>
       <c r="N29" s="7">
-        <v>123358</v>
+        <v>114840</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C30" s="7">
         <v>32</v>
       </c>
       <c r="D30" s="7">
-        <v>31900</v>
+        <v>30278</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>218</v>
+        <v>52</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H30" s="7">
         <v>32</v>
       </c>
       <c r="I30" s="7">
-        <v>29636</v>
+        <v>26159</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>217</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>222</v>
+        <v>54</v>
       </c>
       <c r="M30" s="7">
         <v>64</v>
       </c>
       <c r="N30" s="7">
-        <v>61536</v>
+        <v>56437</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2629,51 +2620,51 @@
         <v>1673</v>
       </c>
       <c r="D31" s="7">
-        <v>1837412</v>
+        <v>1966291</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H31" s="7">
         <v>2037</v>
       </c>
       <c r="I31" s="7">
-        <v>1504002</v>
+        <v>1463323</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="M31" s="7">
         <v>3710</v>
       </c>
       <c r="N31" s="7">
-        <v>3341414</v>
+        <v>3429615</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
